--- a/database.xlsx
+++ b/database.xlsx
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +103,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -175,10 +183,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -193,8 +202,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,7 +511,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +669,7 @@
       <c r="S5" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -669,7 +680,10 @@
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="O1:S1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>destinations</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Loren ipsun</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
     <t>offers</t>
   </si>
   <si>
@@ -70,10 +64,13 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>destination_id</t>
-  </si>
-  <si>
     <t>https://demo.egenslab.com/html/tourxpro/demo/package-details.html</t>
+  </si>
+  <si>
+    <t>region_id</t>
+  </si>
+  <si>
+    <t>regions</t>
   </si>
 </sst>
 </file>
@@ -193,6 +190,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,7 +200,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,95 +508,95 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="6"/>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="7"/>
+      <c r="O1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -607,20 +604,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -669,8 +664,8 @@
       <c r="S5" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>19</v>
+      <c r="A13" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
